--- a/Kode/Server2/Logs/lora_node3/2020-05-15.xlsx
+++ b/Kode/Server2/Logs/lora_node3/2020-05-15.xlsx
@@ -623,7 +623,7 @@
         <v>0.645</v>
       </c>
       <c r="F13" t="n">
-        <v>1.03974</v>
+        <v>1039.74</v>
       </c>
     </row>
   </sheetData>
